--- a/db/tmk/bb1.xlsx
+++ b/db/tmk/bb1.xlsx
@@ -18,7 +18,6 @@
     <definedName name="bb1_" localSheetId="0">Sheet1!$A$1:$CI$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="792">
   <si>
     <t>Titel</t>
   </si>
@@ -2422,6 +2421,78 @@
   </si>
   <si>
     <t>1903</t>
+  </si>
+  <si>
+    <t>1836 en 1856</t>
+  </si>
+  <si>
+    <t>1837 - 1838</t>
+  </si>
+  <si>
+    <t>1837 en 1842</t>
+  </si>
+  <si>
+    <t>1842 en 1843</t>
+  </si>
+  <si>
+    <t>1893 en 1894</t>
+  </si>
+  <si>
+    <t>1838 - 1839</t>
+  </si>
+  <si>
+    <t>1836 en 1843</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>1869</t>
+  </si>
+  <si>
+    <t>1889, 1893, 1905 en 1908</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>1891 en naar de Belgische topografische kaarten van 1903 tot 1905</t>
+  </si>
+  <si>
+    <t>1891 en 1901</t>
+  </si>
+  <si>
+    <t>1887, 1895 en 1896</t>
+  </si>
+  <si>
+    <t>1864</t>
+  </si>
+  <si>
+    <t>1890 en 1891</t>
+  </si>
+  <si>
+    <t>1838 en 1839</t>
+  </si>
+  <si>
+    <t>1843 en 1844</t>
+  </si>
+  <si>
+    <t>Uitgave 1910</t>
+  </si>
+  <si>
+    <t>1837 - 1842</t>
+  </si>
+  <si>
+    <t>1890-1891 en 1892</t>
+  </si>
+  <si>
+    <t>1909 en 1910</t>
+  </si>
+  <si>
+    <t>1908 en 1909</t>
+  </si>
+  <si>
+    <t>1890 1891 en 1892</t>
   </si>
 </sst>
 </file>
@@ -2783,10 +2854,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="BN47" sqref="BN47"/>
+      <selection pane="bottomLeft" activeCell="BS68" sqref="BS68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,12 +5330,13 @@
       <c r="BR45" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="BS45" s="1"/>
+      <c r="BS45" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="BT45" s="1"/>
       <c r="BU45" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="BV45" s="1"/>
       <c r="BW45" s="1" t="s">
         <v>484</v>
       </c>
@@ -5358,6 +5430,18 @@
       <c r="BM47" s="1" t="s">
         <v>504</v>
       </c>
+      <c r="BO47">
+        <v>1856</v>
+      </c>
+      <c r="BQ47">
+        <v>1902</v>
+      </c>
+      <c r="BR47">
+        <v>1911</v>
+      </c>
+      <c r="BV47">
+        <v>1912</v>
+      </c>
       <c r="BW47" s="1" t="s">
         <v>505</v>
       </c>
@@ -5396,6 +5480,18 @@
       <c r="BM48" s="1" t="s">
         <v>513</v>
       </c>
+      <c r="BO48" t="s">
+        <v>768</v>
+      </c>
+      <c r="BQ48">
+        <v>1899</v>
+      </c>
+      <c r="BR48">
+        <v>1910</v>
+      </c>
+      <c r="BV48">
+        <v>1911</v>
+      </c>
       <c r="BW48" s="1" t="s">
         <v>514</v>
       </c>
@@ -5437,13 +5533,21 @@
       <c r="BN49" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BO49" s="1"/>
-      <c r="BP49" s="1"/>
+      <c r="BO49" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="BP49" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
-      <c r="BS49" s="1"/>
+      <c r="BS49" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="BT49" s="1"/>
-      <c r="BU49" s="1"/>
+      <c r="BU49" s="1" t="s">
+        <v>777</v>
+      </c>
       <c r="BV49" s="1"/>
       <c r="BW49" s="1" t="s">
         <v>523</v>
@@ -5486,12 +5590,22 @@
       <c r="BN50" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="BO50" s="1"/>
+      <c r="BO50" s="1" t="s">
+        <v>769</v>
+      </c>
       <c r="BP50" s="1"/>
-      <c r="BQ50" s="1"/>
-      <c r="BR50" s="1"/>
-      <c r="BS50" s="1"/>
-      <c r="BT50" s="1"/>
+      <c r="BQ50" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="BR50" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="BS50" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BT50" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="BU50" s="1"/>
       <c r="BV50" s="1"/>
       <c r="BW50" s="1" t="s">
@@ -5535,13 +5649,21 @@
       <c r="BN51" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="BO51" s="1"/>
-      <c r="BP51" s="1"/>
+      <c r="BO51" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="BP51" s="1" t="s">
+        <v>762</v>
+      </c>
       <c r="BQ51" s="1"/>
       <c r="BR51" s="1"/>
-      <c r="BS51" s="1"/>
+      <c r="BS51" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="BT51" s="1"/>
-      <c r="BU51" s="1"/>
+      <c r="BU51" s="1" t="s">
+        <v>783</v>
+      </c>
       <c r="BV51" s="1"/>
       <c r="BW51" s="1" t="s">
         <v>542</v>
@@ -5581,6 +5703,15 @@
       <c r="BM52" s="1" t="s">
         <v>550</v>
       </c>
+      <c r="BO52">
+        <v>1857</v>
+      </c>
+      <c r="BQ52">
+        <v>1909</v>
+      </c>
+      <c r="BV52">
+        <v>1915</v>
+      </c>
       <c r="BW52" s="1" t="s">
         <v>551</v>
       </c>
@@ -5622,14 +5753,21 @@
       <c r="BN53" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="BO53" s="1"/>
-      <c r="BP53" s="1"/>
-      <c r="BQ53" s="1"/>
+      <c r="BO53" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="BP53" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="BQ53" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="BR53" s="1"/>
-      <c r="BS53" s="1"/>
+      <c r="BS53" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="BT53" s="1"/>
       <c r="BU53" s="1"/>
-      <c r="BV53" s="1"/>
       <c r="BW53" s="1" t="s">
         <v>561</v>
       </c>
@@ -5668,6 +5806,18 @@
       <c r="BM54" s="1" t="s">
         <v>569</v>
       </c>
+      <c r="BO54" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="BQ54">
+        <v>1908</v>
+      </c>
+      <c r="BR54">
+        <v>1913</v>
+      </c>
+      <c r="BV54">
+        <v>1914</v>
+      </c>
       <c r="BW54" s="1" t="s">
         <v>570</v>
       </c>
@@ -5709,14 +5859,24 @@
       <c r="BN55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BO55" s="1"/>
+      <c r="BO55" s="1" t="s">
+        <v>784</v>
+      </c>
       <c r="BP55" s="1"/>
-      <c r="BQ55" s="1"/>
-      <c r="BR55" s="1"/>
-      <c r="BS55" s="1"/>
+      <c r="BQ55" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="BR55" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="BS55" s="1" t="s">
+        <v>786</v>
+      </c>
       <c r="BT55" s="1"/>
       <c r="BU55" s="1"/>
-      <c r="BV55" s="1"/>
+      <c r="BV55" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="BW55" s="1" t="s">
         <v>579</v>
       </c>
@@ -5755,6 +5915,18 @@
       <c r="BM56" s="1" t="s">
         <v>587</v>
       </c>
+      <c r="BO56">
+        <v>1840</v>
+      </c>
+      <c r="BQ56">
+        <v>1898</v>
+      </c>
+      <c r="BR56">
+        <v>1912</v>
+      </c>
+      <c r="BV56">
+        <v>1912</v>
+      </c>
       <c r="BW56" s="1" t="s">
         <v>588</v>
       </c>
@@ -5796,13 +5968,21 @@
       <c r="BN57" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="BO57" s="1"/>
-      <c r="BP57" s="1"/>
+      <c r="BO57" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="BP57" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="BQ57" s="1"/>
       <c r="BR57" s="1"/>
-      <c r="BS57" s="1"/>
+      <c r="BS57" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="BT57" s="1"/>
-      <c r="BU57" s="1"/>
+      <c r="BU57" s="1" t="s">
+        <v>788</v>
+      </c>
       <c r="BV57" s="1"/>
       <c r="BW57" s="1" t="s">
         <v>598</v>
@@ -5842,6 +6022,15 @@
       <c r="BM58" s="1" t="s">
         <v>606</v>
       </c>
+      <c r="BO58">
+        <v>1857</v>
+      </c>
+      <c r="BQ58" t="s">
+        <v>789</v>
+      </c>
+      <c r="BV58">
+        <v>1916</v>
+      </c>
       <c r="BW58" s="1" t="s">
         <v>607</v>
       </c>
@@ -5883,11 +6072,19 @@
       <c r="BN59" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="BO59" s="1"/>
-      <c r="BP59" s="1"/>
-      <c r="BQ59" s="1"/>
+      <c r="BO59" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="BP59" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="BQ59" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="BR59" s="1"/>
-      <c r="BS59" s="1"/>
+      <c r="BS59" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="BT59" s="1"/>
       <c r="BU59" s="1"/>
       <c r="BV59" s="1"/>
@@ -5929,6 +6126,18 @@
       <c r="BM60" s="1" t="s">
         <v>625</v>
       </c>
+      <c r="BO60">
+        <v>1856</v>
+      </c>
+      <c r="BQ60" t="s">
+        <v>790</v>
+      </c>
+      <c r="BR60">
+        <v>1913</v>
+      </c>
+      <c r="BV60">
+        <v>1914</v>
+      </c>
       <c r="BW60" s="1" t="s">
         <v>626</v>
       </c>
@@ -5967,6 +6176,15 @@
       <c r="BM61" s="1" t="s">
         <v>634</v>
       </c>
+      <c r="BO61" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="BQ61">
+        <v>1911</v>
+      </c>
+      <c r="BV61" s="1">
+        <v>1914</v>
+      </c>
       <c r="BW61" s="1" t="s">
         <v>635</v>
       </c>
@@ -6005,6 +6223,18 @@
       <c r="BM62" s="1" t="s">
         <v>643</v>
       </c>
+      <c r="BO62" t="s">
+        <v>770</v>
+      </c>
+      <c r="BQ62">
+        <v>1898</v>
+      </c>
+      <c r="BR62">
+        <v>1914</v>
+      </c>
+      <c r="BV62">
+        <v>1914</v>
+      </c>
       <c r="BW62" s="1" t="s">
         <v>644</v>
       </c>
@@ -6046,13 +6276,21 @@
       <c r="BN63" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="BO63" s="1"/>
-      <c r="BP63" s="1"/>
+      <c r="BO63" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="BP63" s="1" t="s">
+        <v>733</v>
+      </c>
       <c r="BQ63" s="1"/>
       <c r="BR63" s="1"/>
-      <c r="BS63" s="1"/>
+      <c r="BS63" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="BT63" s="1"/>
-      <c r="BU63" s="1"/>
+      <c r="BU63" s="1" t="s">
+        <v>791</v>
+      </c>
       <c r="BV63" s="1"/>
       <c r="BW63" s="1" t="s">
         <v>653</v>
@@ -6095,12 +6333,20 @@
       <c r="BN64" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="BO64" s="1"/>
-      <c r="BP64" s="1"/>
+      <c r="BO64" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="BP64" s="1" t="s">
+        <v>782</v>
+      </c>
       <c r="BQ64" s="1"/>
       <c r="BR64" s="1"/>
-      <c r="BS64" s="1"/>
-      <c r="BT64" s="1"/>
+      <c r="BS64" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="BT64" s="1" t="s">
+        <v>779</v>
+      </c>
       <c r="BU64" s="1"/>
       <c r="BV64" s="1"/>
       <c r="BW64" s="1" t="s">
@@ -6141,6 +6387,15 @@
       <c r="BM65" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="BO65">
+        <v>1842</v>
+      </c>
+      <c r="BQ65">
+        <v>1907</v>
+      </c>
+      <c r="BV65" s="1">
+        <v>1910</v>
+      </c>
       <c r="BW65" s="1" t="s">
         <v>672</v>
       </c>
@@ -6179,6 +6434,18 @@
       <c r="BM66" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="BO66" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="BQ66">
+        <v>1891</v>
+      </c>
+      <c r="BR66">
+        <v>1907</v>
+      </c>
+      <c r="BV66" s="1">
+        <v>1911</v>
+      </c>
       <c r="BW66" s="1" t="s">
         <v>681</v>
       </c>
@@ -6220,12 +6487,20 @@
       <c r="BN67" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="BO67" s="1"/>
-      <c r="BP67" s="1"/>
+      <c r="BO67" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="BP67" s="1" t="s">
+        <v>782</v>
+      </c>
       <c r="BQ67" s="1"/>
       <c r="BR67" s="1"/>
-      <c r="BS67" s="1"/>
-      <c r="BT67" s="1"/>
+      <c r="BS67" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="BT67" s="1" t="s">
+        <v>780</v>
+      </c>
       <c r="BU67" s="1"/>
       <c r="BV67" s="1"/>
       <c r="BW67" s="1" t="s">

--- a/db/tmk/bb1.xlsx
+++ b/db/tmk/bb1.xlsx
@@ -18,6 +18,7 @@
     <definedName name="bb1_" localSheetId="0">Sheet1!$A$1:$CI$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="768">
   <si>
     <t>Titel</t>
   </si>
@@ -2421,78 +2422,6 @@
   </si>
   <si>
     <t>1903</t>
-  </si>
-  <si>
-    <t>1836 en 1856</t>
-  </si>
-  <si>
-    <t>1837 - 1838</t>
-  </si>
-  <si>
-    <t>1837 en 1842</t>
-  </si>
-  <si>
-    <t>1842 en 1843</t>
-  </si>
-  <si>
-    <t>1893 en 1894</t>
-  </si>
-  <si>
-    <t>1838 - 1839</t>
-  </si>
-  <si>
-    <t>1836 en 1843</t>
-  </si>
-  <si>
-    <t>1857</t>
-  </si>
-  <si>
-    <t>1869</t>
-  </si>
-  <si>
-    <t>1889, 1893, 1905 en 1908</t>
-  </si>
-  <si>
-    <t>1842</t>
-  </si>
-  <si>
-    <t>1891 en naar de Belgische topografische kaarten van 1903 tot 1905</t>
-  </si>
-  <si>
-    <t>1891 en 1901</t>
-  </si>
-  <si>
-    <t>1887, 1895 en 1896</t>
-  </si>
-  <si>
-    <t>1864</t>
-  </si>
-  <si>
-    <t>1890 en 1891</t>
-  </si>
-  <si>
-    <t>1838 en 1839</t>
-  </si>
-  <si>
-    <t>1843 en 1844</t>
-  </si>
-  <si>
-    <t>Uitgave 1910</t>
-  </si>
-  <si>
-    <t>1837 - 1842</t>
-  </si>
-  <si>
-    <t>1890-1891 en 1892</t>
-  </si>
-  <si>
-    <t>1909 en 1910</t>
-  </si>
-  <si>
-    <t>1908 en 1909</t>
-  </si>
-  <si>
-    <t>1890 1891 en 1892</t>
   </si>
 </sst>
 </file>
@@ -2854,10 +2783,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="BS68" sqref="BS68"/>
+      <selection pane="bottomLeft" activeCell="BN47" sqref="BN47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,13 +5259,12 @@
       <c r="BR45" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="BS45" s="1" t="s">
-        <v>480</v>
-      </c>
+      <c r="BS45" s="1"/>
       <c r="BT45" s="1"/>
       <c r="BU45" s="1" t="s">
         <v>764</v>
       </c>
+      <c r="BV45" s="1"/>
       <c r="BW45" s="1" t="s">
         <v>484</v>
       </c>
@@ -5430,18 +5358,6 @@
       <c r="BM47" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="BO47">
-        <v>1856</v>
-      </c>
-      <c r="BQ47">
-        <v>1902</v>
-      </c>
-      <c r="BR47">
-        <v>1911</v>
-      </c>
-      <c r="BV47">
-        <v>1912</v>
-      </c>
       <c r="BW47" s="1" t="s">
         <v>505</v>
       </c>
@@ -5480,18 +5396,6 @@
       <c r="BM48" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="BO48" t="s">
-        <v>768</v>
-      </c>
-      <c r="BQ48">
-        <v>1899</v>
-      </c>
-      <c r="BR48">
-        <v>1910</v>
-      </c>
-      <c r="BV48">
-        <v>1911</v>
-      </c>
       <c r="BW48" s="1" t="s">
         <v>514</v>
       </c>
@@ -5533,21 +5437,13 @@
       <c r="BN49" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BO49" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="BP49" s="1" t="s">
-        <v>731</v>
-      </c>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
-      <c r="BS49" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="BS49" s="1"/>
       <c r="BT49" s="1"/>
-      <c r="BU49" s="1" t="s">
-        <v>777</v>
-      </c>
+      <c r="BU49" s="1"/>
       <c r="BV49" s="1"/>
       <c r="BW49" s="1" t="s">
         <v>523</v>
@@ -5590,22 +5486,12 @@
       <c r="BN50" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="BO50" s="1" t="s">
-        <v>769</v>
-      </c>
+      <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
-      <c r="BQ50" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="BR50" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="BS50" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="BT50" s="1" t="s">
-        <v>781</v>
-      </c>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
       <c r="BU50" s="1"/>
       <c r="BV50" s="1"/>
       <c r="BW50" s="1" t="s">
@@ -5649,21 +5535,13 @@
       <c r="BN51" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="BO51" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="BP51" s="1" t="s">
-        <v>762</v>
-      </c>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
       <c r="BQ51" s="1"/>
       <c r="BR51" s="1"/>
-      <c r="BS51" s="1" t="s">
-        <v>491</v>
-      </c>
+      <c r="BS51" s="1"/>
       <c r="BT51" s="1"/>
-      <c r="BU51" s="1" t="s">
-        <v>783</v>
-      </c>
+      <c r="BU51" s="1"/>
       <c r="BV51" s="1"/>
       <c r="BW51" s="1" t="s">
         <v>542</v>
@@ -5703,15 +5581,6 @@
       <c r="BM52" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="BO52">
-        <v>1857</v>
-      </c>
-      <c r="BQ52">
-        <v>1909</v>
-      </c>
-      <c r="BV52">
-        <v>1915</v>
-      </c>
       <c r="BW52" s="1" t="s">
         <v>551</v>
       </c>
@@ -5753,21 +5622,14 @@
       <c r="BN53" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="BO53" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="BP53" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="BQ53" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
       <c r="BR53" s="1"/>
-      <c r="BS53" s="1" t="s">
-        <v>558</v>
-      </c>
+      <c r="BS53" s="1"/>
       <c r="BT53" s="1"/>
       <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
       <c r="BW53" s="1" t="s">
         <v>561</v>
       </c>
@@ -5806,18 +5668,6 @@
       <c r="BM54" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="BO54" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="BQ54">
-        <v>1908</v>
-      </c>
-      <c r="BR54">
-        <v>1913</v>
-      </c>
-      <c r="BV54">
-        <v>1914</v>
-      </c>
       <c r="BW54" s="1" t="s">
         <v>570</v>
       </c>
@@ -5859,24 +5709,14 @@
       <c r="BN55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BO55" s="1" t="s">
-        <v>784</v>
-      </c>
+      <c r="BO55" s="1"/>
       <c r="BP55" s="1"/>
-      <c r="BQ55" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="BR55" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="BS55" s="1" t="s">
-        <v>786</v>
-      </c>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
       <c r="BT55" s="1"/>
       <c r="BU55" s="1"/>
-      <c r="BV55" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="BV55" s="1"/>
       <c r="BW55" s="1" t="s">
         <v>579</v>
       </c>
@@ -5915,18 +5755,6 @@
       <c r="BM56" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="BO56">
-        <v>1840</v>
-      </c>
-      <c r="BQ56">
-        <v>1898</v>
-      </c>
-      <c r="BR56">
-        <v>1912</v>
-      </c>
-      <c r="BV56">
-        <v>1912</v>
-      </c>
       <c r="BW56" s="1" t="s">
         <v>588</v>
       </c>
@@ -5968,21 +5796,13 @@
       <c r="BN57" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="BO57" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="BP57" s="1" t="s">
-        <v>731</v>
-      </c>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
       <c r="BQ57" s="1"/>
       <c r="BR57" s="1"/>
-      <c r="BS57" s="1" t="s">
-        <v>595</v>
-      </c>
+      <c r="BS57" s="1"/>
       <c r="BT57" s="1"/>
-      <c r="BU57" s="1" t="s">
-        <v>788</v>
-      </c>
+      <c r="BU57" s="1"/>
       <c r="BV57" s="1"/>
       <c r="BW57" s="1" t="s">
         <v>598</v>
@@ -6022,15 +5842,6 @@
       <c r="BM58" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="BO58">
-        <v>1857</v>
-      </c>
-      <c r="BQ58" t="s">
-        <v>789</v>
-      </c>
-      <c r="BV58">
-        <v>1916</v>
-      </c>
       <c r="BW58" s="1" t="s">
         <v>607</v>
       </c>
@@ -6072,19 +5883,11 @@
       <c r="BN59" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="BO59" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="BP59" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="BQ59" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="BO59" s="1"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
-      <c r="BS59" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="BS59" s="1"/>
       <c r="BT59" s="1"/>
       <c r="BU59" s="1"/>
       <c r="BV59" s="1"/>
@@ -6126,18 +5929,6 @@
       <c r="BM60" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="BO60">
-        <v>1856</v>
-      </c>
-      <c r="BQ60" t="s">
-        <v>790</v>
-      </c>
-      <c r="BR60">
-        <v>1913</v>
-      </c>
-      <c r="BV60">
-        <v>1914</v>
-      </c>
       <c r="BW60" s="1" t="s">
         <v>626</v>
       </c>
@@ -6176,15 +5967,6 @@
       <c r="BM61" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="BO61" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="BQ61">
-        <v>1911</v>
-      </c>
-      <c r="BV61" s="1">
-        <v>1914</v>
-      </c>
       <c r="BW61" s="1" t="s">
         <v>635</v>
       </c>
@@ -6223,18 +6005,6 @@
       <c r="BM62" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="BO62" t="s">
-        <v>770</v>
-      </c>
-      <c r="BQ62">
-        <v>1898</v>
-      </c>
-      <c r="BR62">
-        <v>1914</v>
-      </c>
-      <c r="BV62">
-        <v>1914</v>
-      </c>
       <c r="BW62" s="1" t="s">
         <v>644</v>
       </c>
@@ -6276,21 +6046,13 @@
       <c r="BN63" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="BO63" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="BP63" s="1" t="s">
-        <v>733</v>
-      </c>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
       <c r="BQ63" s="1"/>
       <c r="BR63" s="1"/>
-      <c r="BS63" s="1" t="s">
-        <v>595</v>
-      </c>
+      <c r="BS63" s="1"/>
       <c r="BT63" s="1"/>
-      <c r="BU63" s="1" t="s">
-        <v>791</v>
-      </c>
+      <c r="BU63" s="1"/>
       <c r="BV63" s="1"/>
       <c r="BW63" s="1" t="s">
         <v>653</v>
@@ -6333,20 +6095,12 @@
       <c r="BN64" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="BO64" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="BP64" s="1" t="s">
-        <v>782</v>
-      </c>
+      <c r="BO64" s="1"/>
+      <c r="BP64" s="1"/>
       <c r="BQ64" s="1"/>
       <c r="BR64" s="1"/>
-      <c r="BS64" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="BT64" s="1" t="s">
-        <v>779</v>
-      </c>
+      <c r="BS64" s="1"/>
+      <c r="BT64" s="1"/>
       <c r="BU64" s="1"/>
       <c r="BV64" s="1"/>
       <c r="BW64" s="1" t="s">
@@ -6387,15 +6141,6 @@
       <c r="BM65" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="BO65">
-        <v>1842</v>
-      </c>
-      <c r="BQ65">
-        <v>1907</v>
-      </c>
-      <c r="BV65" s="1">
-        <v>1910</v>
-      </c>
       <c r="BW65" s="1" t="s">
         <v>672</v>
       </c>
@@ -6434,18 +6179,6 @@
       <c r="BM66" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="BO66" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="BQ66">
-        <v>1891</v>
-      </c>
-      <c r="BR66">
-        <v>1907</v>
-      </c>
-      <c r="BV66" s="1">
-        <v>1911</v>
-      </c>
       <c r="BW66" s="1" t="s">
         <v>681</v>
       </c>
@@ -6487,20 +6220,12 @@
       <c r="BN67" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="BO67" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="BP67" s="1" t="s">
-        <v>782</v>
-      </c>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
       <c r="BQ67" s="1"/>
       <c r="BR67" s="1"/>
-      <c r="BS67" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="BT67" s="1" t="s">
-        <v>780</v>
-      </c>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="1"/>
       <c r="BU67" s="1"/>
       <c r="BV67" s="1"/>
       <c r="BW67" s="1" t="s">
